--- a/tests/ping-pong/性能对比.xlsx
+++ b/tests/ping-pong/性能对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shareVirtualBox\yunndsl\yunndsl\ndsl\tests\ping-pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90132656-87CA-4539-90BC-AF6367738E95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF7270-9247-406E-AD46-68189708F255}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,16 +648,13 @@
         <v>4096</v>
       </c>
       <c r="C3">
-        <v>90.646700999999993</v>
+        <v>97.763672</v>
       </c>
       <c r="D3">
-        <v>248.277908</v>
+        <v>345.81675300000001</v>
       </c>
       <c r="E3">
-        <v>239.70985200000001</v>
-      </c>
-      <c r="F3">
-        <v>247.41224</v>
+        <v>342.52022599999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,16 +685,13 @@
         <v>8192</v>
       </c>
       <c r="C6">
-        <v>160.72222199999999</v>
+        <v>182.30390600000001</v>
       </c>
       <c r="D6">
-        <v>452.20182299999999</v>
+        <v>601.00781199999994</v>
       </c>
       <c r="E6">
-        <v>446.91224</v>
-      </c>
-      <c r="F6">
-        <v>457.37311199999999</v>
+        <v>594.01250000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,16 +722,13 @@
         <v>16384</v>
       </c>
       <c r="C9">
-        <v>271.82239600000003</v>
+        <v>312.23567700000001</v>
       </c>
       <c r="D9">
-        <v>708.00815999999998</v>
+        <v>924.44531199999994</v>
       </c>
       <c r="E9">
-        <v>714.659896</v>
-      </c>
-      <c r="F9">
-        <v>721.198307</v>
+        <v>912.31024300000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">

--- a/tests/ping-pong/性能对比.xlsx
+++ b/tests/ping-pong/性能对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shareVirtualBox\yunndsl\yunndsl\ndsl\tests\ping-pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF7270-9247-406E-AD46-68189708F255}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E72CF-5859-47E3-B250-1EC7D8D40CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,3038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1 thread</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>4k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.499696180599997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332.79006076399997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334.28094618099999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334.53079427099999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B50C-43B2-88AE-5656ACD8BDD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97.763672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345.81675300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342.52022599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B50C-43B2-88AE-5656ACD8BDD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="453182104"/>
+        <c:axId val="453182432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="453182104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453182432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453182432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453182104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1 thread 8k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$14:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158.75364583300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>575.15364583300004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>581.07092013900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>528.90729166699998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A4E-415B-B595-356AC93868CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$14:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>182.30390600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.00781199999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594.01250000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A4E-415B-B595-356AC93868CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="454224680"/>
+        <c:axId val="454225008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="454224680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454225008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454225008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454224680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> thread 16k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>270.99687499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>876.54392361099997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>864.057465278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>783.22643229200003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EC7-47DF-A49B-EA80257B6893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$14:$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>312.23567700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>924.44531199999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>912.31024300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EC7-47DF-A49B-EA80257B6893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="465870128"/>
+        <c:axId val="465870784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465870128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465870784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465870784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465870128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1147762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5EF8C9-9FF3-46D4-8906-2273ED1C60F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>862012</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072DA2DD-75EB-43CD-9D2F-5750B9CB7132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1252537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A1C1A6-A87E-46FF-BB7B-68A61C06620D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8878A5F6-8509-4B65-A2CD-F07AB087FE84}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,9 +3627,16 @@
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +3679,7 @@
         <v>334.53079427099999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -657,7 +3696,7 @@
         <v>342.52022599999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -677,7 +3716,7 @@
         <v>528.90729166699998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -694,7 +3733,7 @@
         <v>594.01250000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -714,7 +3753,7 @@
         <v>783.22643229200003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -731,7 +3770,7 @@
         <v>912.31024300000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -746,10 +3785,117 @@
       </c>
       <c r="F11">
         <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>84.499696180599997</v>
+      </c>
+      <c r="C15">
+        <v>332.79006076399997</v>
+      </c>
+      <c r="D15">
+        <v>334.28094618099999</v>
+      </c>
+      <c r="E15">
+        <v>334.53079427099999</v>
+      </c>
+      <c r="G15">
+        <v>158.75364583300001</v>
+      </c>
+      <c r="H15">
+        <v>575.15364583300004</v>
+      </c>
+      <c r="I15">
+        <v>581.07092013900001</v>
+      </c>
+      <c r="J15">
+        <v>528.90729166699998</v>
+      </c>
+      <c r="L15">
+        <v>270.99687499999999</v>
+      </c>
+      <c r="M15">
+        <v>876.54392361099997</v>
+      </c>
+      <c r="N15">
+        <v>864.057465278</v>
+      </c>
+      <c r="O15">
+        <v>783.22643229200003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>97.763672</v>
+      </c>
+      <c r="C16">
+        <v>345.81675300000001</v>
+      </c>
+      <c r="D16">
+        <v>342.52022599999998</v>
+      </c>
+      <c r="G16">
+        <v>182.30390600000001</v>
+      </c>
+      <c r="H16">
+        <v>601.00781199999994</v>
+      </c>
+      <c r="I16">
+        <v>594.01250000000005</v>
+      </c>
+      <c r="L16">
+        <v>312.23567700000001</v>
+      </c>
+      <c r="M16">
+        <v>924.44531199999994</v>
+      </c>
+      <c r="N16">
+        <v>912.31024300000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/ping-pong/性能对比.xlsx
+++ b/tests/ping-pong/性能对比.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shareVirtualBox\yunndsl\yunndsl\ndsl\tests\ping-pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E72CF-5859-47E3-B250-1EC7D8D40CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01B7D3-498F-4D36-85AA-DF5CCE7611B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
+    <workbookView xWindow="1650" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +63,18 @@
   </si>
   <si>
     <t>MiB/s</t>
+  </si>
+  <si>
+    <t>多线程 muduo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程ndsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -106,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,13 +153,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +176,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3505,7 +3533,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3615,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8878A5F6-8509-4B65-A2CD-F07AB087FE84}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3898,4 +3926,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EF4D-32CC-47E9-8059-74CE8C3C373A}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>16384</v>
+      </c>
+      <c r="C2">
+        <v>277.63125000000002</v>
+      </c>
+      <c r="D2">
+        <v>884.397916667</v>
+      </c>
+      <c r="E2">
+        <v>880.83124999999995</v>
+      </c>
+      <c r="F2">
+        <v>781.96692708299997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>16384</v>
+      </c>
+      <c r="C3">
+        <v>342.90312499999999</v>
+      </c>
+      <c r="D3">
+        <v>913.453125</v>
+      </c>
+      <c r="E3">
+        <v>918.10729200000003</v>
+      </c>
+      <c r="F3">
+        <v>838.44817699999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1707.2854166699999</v>
+      </c>
+      <c r="F7">
+        <v>1438.8070312499999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2272.4921875</v>
+      </c>
+      <c r="F8">
+        <v>1862.29427083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2720.2156249999998</v>
+      </c>
+      <c r="F9">
+        <v>2067.7229954999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/ping-pong/性能对比.xlsx
+++ b/tests/ping-pong/性能对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\shareVirtualBox\yunndsl\yunndsl\ndsl\tests\ping-pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B01B7D3-498F-4D36-85AA-DF5CCE7611B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00AA618-DDF1-4CD8-8A33-BBF4DE7804BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2A728C38-DF68-4643-AFDE-8CF1103BA862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -73,7 +73,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>muduo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100conn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000conn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,6 +1506,1376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>单线程</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>muduo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>277.63125000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884.397916667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880.83124999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>781.96692708299997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-047D-441E-837B-DE02EA355D24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ndsl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 connection</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 connections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 connections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 connections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>342.90312499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>913.453125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921.33307300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>838.44817699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-047D-441E-837B-DE02EA355D24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="457226288"/>
+        <c:axId val="457225632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="457226288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457225632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457225632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457226288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>多线程 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>100</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>连接</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>muduo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$K$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>880.83124999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1707.2854166699999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2272.4921875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2720.2156249999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABB5-4D34-A322-20B1863878FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ndsl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$K$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>921.33307300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1734.669271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2322.4187499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2777.6703120000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB5-4D34-A322-20B1863878FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="457221696"/>
+        <c:axId val="457220056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="457221696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457220056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457220056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457221696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>多线程 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>连接</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>muduo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$K$28:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$29:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>781.96692708299997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1438.8070312499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1862.29427083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2067.7229954999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AF4-46A2-943B-9F1853482484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ndsl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$K$28:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$30:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>838.44817699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1468.472135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1901.692448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2131.1705729999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AF4-46A2-943B-9F1853482484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="566024120"/>
+        <c:axId val="566024448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="566024120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566024448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566024448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566024120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1611,6 +2996,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2618,6 +4123,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3213,6 +6227,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A1C1A6-A87E-46FF-BB7B-68A61C06620D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB1CD16-3843-45F4-B809-00A199803F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69D5DC7-524A-43D1-B0F2-AF6AA08EB654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B68A8A-11ED-4C24-9A04-4A51F4820CDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3930,15 +7057,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C80EF4D-32CC-47E9-8059-74CE8C3C373A}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3958,8 +7085,20 @@
         <v>10</v>
       </c>
       <c r="H1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3978,8 +7117,23 @@
       <c r="F2">
         <v>781.96692708299997</v>
       </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>277.63125000000002</v>
+      </c>
+      <c r="L2">
+        <v>884.397916667</v>
+      </c>
+      <c r="M2">
+        <v>880.83124999999995</v>
+      </c>
+      <c r="N2">
+        <v>781.96692708299997</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3993,26 +7147,33 @@
         <v>913.453125</v>
       </c>
       <c r="E3">
-        <v>918.10729200000003</v>
+        <v>921.33307300000001</v>
       </c>
       <c r="F3">
         <v>838.44817699999999</v>
       </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>342.90312499999999</v>
+      </c>
+      <c r="L3">
+        <v>913.453125</v>
+      </c>
+      <c r="M3">
+        <v>921.33307300000001</v>
+      </c>
+      <c r="N3">
+        <v>838.44817699999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4023,7 +7184,7 @@
         <v>1438.8070312499999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4034,7 +7195,7 @@
         <v>1862.29427083</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4045,29 +7206,155 @@
         <v>2067.7229954999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>1734.669271</v>
+      </c>
+      <c r="F12">
+        <v>1468.472135</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="E13">
+        <v>2322.4187499999998</v>
+      </c>
+      <c r="F13">
+        <v>1901.692448</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2777.6703120000002</v>
+      </c>
+      <c r="F14">
+        <v>2131.1705729999999</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <v>880.83124999999995</v>
+      </c>
+      <c r="L24">
+        <v>1707.2854166699999</v>
+      </c>
+      <c r="M24">
+        <v>2272.4921875</v>
+      </c>
+      <c r="N24">
+        <v>2720.2156249999998</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>921.33307300000001</v>
+      </c>
+      <c r="L25">
+        <v>1734.669271</v>
+      </c>
+      <c r="M25">
+        <v>2322.4187499999998</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2777.6703120000002</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>781.96692708299997</v>
+      </c>
+      <c r="L29">
+        <v>1438.8070312499999</v>
+      </c>
+      <c r="M29">
+        <v>1862.29427083</v>
+      </c>
+      <c r="N29">
+        <v>2067.7229954999998</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>838.44817699999999</v>
+      </c>
+      <c r="L30">
+        <v>1468.472135</v>
+      </c>
+      <c r="M30">
+        <v>1901.692448</v>
+      </c>
+      <c r="N30">
+        <v>2131.1705729999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>